--- a/static/assets/upload_data/dataujirill.xlsx
+++ b/static/assets/upload_data/dataujirill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AAS\SKRIPSI\RainCastID\static\assets\upload_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{320C8E8A-E761-44A3-8BDE-3364C0D71167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E6550AB-40FE-4E20-BFC0-C60040F3EC6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6A4D5BCD-8B0D-4CE8-87AF-E02AEB50BE7C}"/>
   </bookViews>
@@ -83,10 +83,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -401,165 +400,209 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B79FBBB2-D983-4275-973F-06186AE5B812}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>27</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>83</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>5.6588888839999996</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>1011.5</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>275.3</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>25</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>87</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>5.6588888839999996</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>1012</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>199.4</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>27.8</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>85</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>4.115555552</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>1011.4</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>182.5</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>27.1</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>78</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>3.601111108</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>1012.1</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>26.8</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>71</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>4.115555552</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>1011.6</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>5.3</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>27</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>73</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>4.115555552</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>1012.3</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>34.299999999999997</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <v>28.2</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>71</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>5.14444444</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <v>1012.5</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1">
         <v>5.6</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+      <c r="A9" s="1">
         <v>27.9</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>77</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <v>5.14444444</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <v>1011.6</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="1">
         <v>256.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <f>MIN(A2:A9)</f>
+        <v>25</v>
+      </c>
+      <c r="B10" s="1">
+        <f t="shared" ref="B10:E10" si="0">MIN(B2:B9)</f>
+        <v>71</v>
+      </c>
+      <c r="C10" s="1">
+        <f t="shared" si="0"/>
+        <v>3.601111108</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" si="0"/>
+        <v>1011.4</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <f>MAX(A2:A9)</f>
+        <v>28.2</v>
+      </c>
+      <c r="B11" s="1">
+        <f t="shared" ref="B11:E11" si="1">MAX(B2:B9)</f>
+        <v>87</v>
+      </c>
+      <c r="C11" s="1">
+        <f t="shared" si="1"/>
+        <v>5.6588888839999996</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" si="1"/>
+        <v>1012.5</v>
+      </c>
+      <c r="E11" s="1">
+        <f t="shared" si="1"/>
+        <v>275.3</v>
       </c>
     </row>
   </sheetData>
